--- a/medicine/Enfance/Charles_Eliot_Norton/Charles_Eliot_Norton.xlsx
+++ b/medicine/Enfance/Charles_Eliot_Norton/Charles_Eliot_Norton.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Charles Eliot Norton, né le 16 novembre 1827 à Cambridge (Massachusetts) où il est mort le 21 octobre 1908, est un érudit et un homme de lettres américain.
 </t>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Charles Eliot est le fils d'Andrews Norton (1786-1853), théologien unitarien et professeur de littérature sacrée à l'université Harvard, et de Catherine Eliot. Charles William Eliot, président de Harvard, est son cousin. Ses frères sont le général Charles Benjamin Norton et Frank Henry Norton.
 Norton sort diplômé de Harvard en 1846 et débute dans les affaires avec une entreprise de commerce des Indes orientales à Boston, voyageant en Inde en 1849. Après un voyage en Europe, il retourne en Amérique en 1851 et, à partir de là, se consacre à la littérature et à l'art.
